--- a/swertres/results_filter_excel.xlsx
+++ b/swertres/results_filter_excel.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00759634"/>
+        <fgColor rgb="00745804"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00733698"/>
+        <fgColor rgb="00762806"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00719955"/>
+        <fgColor rgb="00742072"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00716786"/>
+        <fgColor rgb="00759872"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00709674"/>
+        <fgColor rgb="00736707"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00749151"/>
+        <fgColor rgb="00750782"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00719869"/>
+        <fgColor rgb="00733265"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00740836"/>
+        <fgColor rgb="00750605"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00702447"/>
+        <fgColor rgb="00741609"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00744679"/>
+        <fgColor rgb="00702631"/>
       </patternFill>
     </fill>
   </fills>

--- a/swertres/results_filter_excel.xlsx
+++ b/swertres/results_filter_excel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00745804"/>
+        <fgColor rgb="00761205"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00762806"/>
+        <fgColor rgb="00762023"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00742072"/>
+        <fgColor rgb="00723269"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00759872"/>
+        <fgColor rgb="00768045"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00736707"/>
+        <fgColor rgb="00726461"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00750782"/>
+        <fgColor rgb="00705507"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00733265"/>
+        <fgColor rgb="00741474"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00750605"/>
+        <fgColor rgb="00701820"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00741609"/>
+        <fgColor rgb="00705021"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00702631"/>
+        <fgColor rgb="00706478"/>
       </patternFill>
     </fill>
   </fills>

--- a/swertres/results_filter_excel.xlsx
+++ b/swertres/results_filter_excel.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00728901"/>
+        <fgColor rgb="00750295"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00753240"/>
+        <fgColor rgb="00736805"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00750151"/>
+        <fgColor rgb="00745888"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00754805"/>
+        <fgColor rgb="00764954"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00771206"/>
+        <fgColor rgb="00761804"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00769916"/>
+        <fgColor rgb="00769162"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00725637"/>
+        <fgColor rgb="00773324"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00701031"/>
+        <fgColor rgb="00755282"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00697201"/>
+        <fgColor rgb="00767495"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00758884"/>
+        <fgColor rgb="00700569"/>
       </patternFill>
     </fill>
   </fills>

--- a/swertres/results_filter_excel.xlsx
+++ b/swertres/results_filter_excel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00745637"/>
+        <fgColor rgb="00734113"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00778290"/>
+        <fgColor rgb="00746489"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00721321"/>
+        <fgColor rgb="00771729"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00761469"/>
+        <fgColor rgb="00719668"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00725754"/>
+        <fgColor rgb="00768787"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00720850"/>
+        <fgColor rgb="00705865"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00738741"/>
+        <fgColor rgb="00700266"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00734866"/>
+        <fgColor rgb="00774498"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00752071"/>
+        <fgColor rgb="00718519"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00765893"/>
+        <fgColor rgb="00761685"/>
       </patternFill>
     </fill>
   </fills>

--- a/swertres/results_filter_excel.xlsx
+++ b/swertres/results_filter_excel.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00711985"/>
+        <fgColor rgb="00770232"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00747539"/>
+        <fgColor rgb="00748908"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00735769"/>
+        <fgColor rgb="00738928"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00769863"/>
+        <fgColor rgb="00741493"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00720963"/>
+        <fgColor rgb="00711275"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00746924"/>
+        <fgColor rgb="00740196"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00700937"/>
+        <fgColor rgb="00706346"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00700100"/>
+        <fgColor rgb="00703741"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00718930"/>
+        <fgColor rgb="00736045"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00748272"/>
+        <fgColor rgb="00761167"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,13 +116,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -131,19 +125,25 @@
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AM101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,1106 +485,9202 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="W2" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AI3" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL3" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM3" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AC4" s="8" t="n">
+        <v>7</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AI4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="AL4" s="9" t="n">
+        <v>9</v>
       </c>
       <c r="AM4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>0</v>
+      <c r="B5" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="11" t="n">
         <v>6</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="10" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="AG5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="AH5" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK5" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AL5" s="2" t="n">
-        <v>0</v>
+      <c r="AL5" s="9" t="n">
+        <v>9</v>
       </c>
       <c r="AM5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>5</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="9" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="AD6" s="8" t="n">
+        <v>7</v>
       </c>
       <c r="AE6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="AG6" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="AH6" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n">
-        <v>0</v>
+      <c r="A7" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AH7" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="AI7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM7" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="9" t="n">
-        <v>6</v>
+      <c r="W8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="Z8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" s="2" t="n">
-        <v>5</v>
+      <c r="AA8" s="11" t="n">
+        <v>6</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AG8" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="AH8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AI8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AM8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="9" t="n">
+        <v>9</v>
       </c>
       <c r="AL9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="U10" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="10" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="AG10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="9" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE11" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="AH11" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="AI11" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL11" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S12" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="AG12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK12" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="9" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL13" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL15" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL16" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U20" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM22" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK25" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM25" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V26" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM26" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL27" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM27" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG28" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD29" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM32" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W33" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM33" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG34" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH34" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL34" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM34" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL35" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U36" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S37" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM37" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD38" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM38" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH39" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM39" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V40" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM40" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V41" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG41" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM41" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W42" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG42" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM43" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI46" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM46" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA47" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK47" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL47" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM47" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL48" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM48" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M49" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM49" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S51" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM51" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM52" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH53" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N54" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD57" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI57" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM57" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH58" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM59" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI61" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM62" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI64" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM64" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R65" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W65" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG65" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK65" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM65" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM68" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z69" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM69" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM70" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM71" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V72" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM73" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U74" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W74" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W76" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD76" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG76" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM76" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG77" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK77" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM77" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC78" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK78" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM78" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG79" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK79" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH80" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL80" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W81" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM81" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE82" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI82" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM82" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S83" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM83" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH84" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL84" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM84" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q85" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI85" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM85" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL86" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM86" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM87" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE88" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM88" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y90" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK90" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S91" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U91" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL91" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM91" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R92" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y92" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK92" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM92" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W93" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y93" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM93" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM94" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U95" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL96" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q97" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE97" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI97" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM97" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R98" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK98" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM98" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I99" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD99" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI99" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM99" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z100" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM100" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W101" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM101" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/swertres/results_filter_excel.xlsx
+++ b/swertres/results_filter_excel.xlsx
@@ -47,52 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00775894"/>
+        <fgColor rgb="00773029"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00768037"/>
+        <fgColor rgb="00727845"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00774160"/>
+        <fgColor rgb="00723517"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00768782"/>
+        <fgColor rgb="00721652"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00731341"/>
+        <fgColor rgb="00722606"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00761556"/>
+        <fgColor rgb="00710743"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00769553"/>
+        <fgColor rgb="00705060"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00769982"/>
+        <fgColor rgb="00769800"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00706980"/>
+        <fgColor rgb="00708438"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00729102"/>
+        <fgColor rgb="00721710"/>
       </patternFill>
     </fill>
   </fills>
